--- a/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">A masked table</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">A masked table with footnotes in header cells</t>
   </si>
   <si>
     <t xml:space="preserve">homeworld</t>
   </si>
   <si>
-    <t xml:space="preserve">species</t>
+    <t xml:space="preserve">species (a)</t>
   </si>
   <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Coruscant</t>
+    <t xml:space="preserve">Coruscant (b)</t>
   </si>
   <si>
     <t xml:space="preserve">Kamino</t>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tholothian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Some remark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) Some comment.</t>
   </si>
 </sst>
 </file>
@@ -76,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -102,6 +108,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -187,6 +198,20 @@
       </top>
       <bottom style="medium">
         <color rgb="FF99C199"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -207,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,7 +252,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,16 +581,16 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -925,6 +953,26 @@
       <c r="F21" s="6" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_7.xlsx
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,11 +107,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,7 +247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
